--- a/datasets/MLS-HousePriceIndex-AllTypes-SeasonallyAdjusted-BenchmarkPrice.xlsx
+++ b/datasets/MLS-HousePriceIndex-AllTypes-SeasonallyAdjusted-BenchmarkPrice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MMS-012\Documents\GitHub\TorontoHousingMarket\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{881C0C1A-9BC3-456E-B863-DF5187A098CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B41C2F0-1491-4D65-93E9-0F910F50D244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EC51C7C2-8A22-4C26-AE9B-F6E6BEFF178D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Composite_Benchmark_SA</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Composite Benchmark Price</t>
   </si>
 </sst>
 </file>
@@ -400,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF3C88F-25D1-4B14-B895-B98F5D9374A0}">
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C190"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -413,7 +419,7 @@
     <col min="3" max="3" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>38353</v>
       </c>
@@ -434,8 +440,14 @@
       <c r="C2">
         <v>305900</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>38384</v>
       </c>
@@ -445,8 +457,15 @@
       <c r="C3">
         <v>307200</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>2005</v>
+      </c>
+      <c r="H3">
+        <f>ROUNDUP(AVERAGE(C2:C13),0)</f>
+        <v>313984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>38412</v>
       </c>
@@ -456,8 +475,15 @@
       <c r="C4">
         <v>308600</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>2006</v>
+      </c>
+      <c r="H4">
+        <f>ROUNDUP(AVERAGE(C14:C25),0)</f>
+        <v>329542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>38443</v>
       </c>
@@ -467,8 +493,15 @@
       <c r="C5">
         <v>310200</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>2007</v>
+      </c>
+      <c r="H5">
+        <f>ROUNDUP(AVERAGE(C26:C37),0)</f>
+        <v>348442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>38473</v>
       </c>
@@ -478,8 +511,15 @@
       <c r="C6">
         <v>311800</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>2008</v>
+      </c>
+      <c r="H6">
+        <f>ROUNDUP(AVERAGE(C38:C49),0)</f>
+        <v>361567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>38504</v>
       </c>
@@ -489,8 +529,15 @@
       <c r="C7">
         <v>313100</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <v>2009</v>
+      </c>
+      <c r="H7">
+        <f>ROUNDUP(AVERAGE(C50:C61),0)</f>
+        <v>362500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>38534</v>
       </c>
@@ -500,8 +547,15 @@
       <c r="C8">
         <v>314500</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>2010</v>
+      </c>
+      <c r="H8">
+        <f>ROUNDUP(AVERAGE(C62:C73),0)</f>
+        <v>399434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>38565</v>
       </c>
@@ -511,8 +565,15 @@
       <c r="C9">
         <v>316200</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <v>2011</v>
+      </c>
+      <c r="H9">
+        <f>ROUNDUP(AVERAGE(C74:C85),0)</f>
+        <v>424734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>38596</v>
       </c>
@@ -522,8 +583,15 @@
       <c r="C10">
         <v>317700</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <v>2012</v>
+      </c>
+      <c r="H10">
+        <f>ROUNDUP(AVERAGE(C86:C97),0)</f>
+        <v>453500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>38626</v>
       </c>
@@ -533,8 +601,15 @@
       <c r="C11">
         <v>319300</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>2013</v>
+      </c>
+      <c r="H11">
+        <f>ROUNDUP(AVERAGE(C98:C109),0)</f>
+        <v>471834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>38657</v>
       </c>
@@ -544,8 +619,15 @@
       <c r="C12">
         <v>320700</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>2014</v>
+      </c>
+      <c r="H12">
+        <f>ROUNDUP(AVERAGE(C110:C121),0)</f>
+        <v>507409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>38687</v>
       </c>
@@ -555,8 +637,15 @@
       <c r="C13">
         <v>322600</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <v>2015</v>
+      </c>
+      <c r="H13">
+        <f>ROUNDUP(AVERAGE(C122:C133),0)</f>
+        <v>554175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>38718</v>
       </c>
@@ -566,8 +655,15 @@
       <c r="C14">
         <v>324100</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <v>2016</v>
+      </c>
+      <c r="H14">
+        <f>ROUNDUP(AVERAGE(C134:C145),0)</f>
+        <v>641434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>38749</v>
       </c>
@@ -577,8 +673,15 @@
       <c r="C15">
         <v>325200</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <v>2017</v>
+      </c>
+      <c r="H15">
+        <f>ROUNDUP(AVERAGE(C146:C157),0)</f>
+        <v>762342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>38777</v>
       </c>
@@ -588,8 +691,15 @@
       <c r="C16">
         <v>326900</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <v>2018</v>
+      </c>
+      <c r="H16">
+        <f>ROUNDUP(AVERAGE(C158:C169),0)</f>
+        <v>762617</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>38808</v>
       </c>
@@ -599,8 +709,15 @@
       <c r="C17">
         <v>328500</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <v>2019</v>
+      </c>
+      <c r="H17">
+        <f>ROUNDUP(AVERAGE(C170:C181),0)</f>
+        <v>795475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>38838</v>
       </c>
@@ -610,8 +727,15 @@
       <c r="C18">
         <v>329500</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <v>2020</v>
+      </c>
+      <c r="H18">
+        <f>ROUNDUP(AVERAGE(C182:C190),0)</f>
+        <v>865467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>38869</v>
       </c>
@@ -622,7 +746,7 @@
         <v>329700</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>38899</v>
       </c>
@@ -633,7 +757,7 @@
         <v>330200</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>38930</v>
       </c>
@@ -644,7 +768,7 @@
         <v>330300</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>38961</v>
       </c>
@@ -655,7 +779,7 @@
         <v>331400</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>38991</v>
       </c>
@@ -666,7 +790,7 @@
         <v>331900</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>39022</v>
       </c>
@@ -677,7 +801,7 @@
         <v>333000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>39052</v>
       </c>
@@ -688,7 +812,7 @@
         <v>333800</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>39083</v>
       </c>
@@ -699,7 +823,7 @@
         <v>335300</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>39114</v>
       </c>
@@ -710,7 +834,7 @@
         <v>338300</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>39142</v>
       </c>
@@ -721,7 +845,7 @@
         <v>340400</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>39173</v>
       </c>
@@ -732,7 +856,7 @@
         <v>342400</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>39203</v>
       </c>
@@ -743,7 +867,7 @@
         <v>344800</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>39234</v>
       </c>
@@ -754,7 +878,7 @@
         <v>347800</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>39264</v>
       </c>
